--- a/Wiki Resources/Sprint Planning 1.xlsx
+++ b/Wiki Resources/Sprint Planning 1.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,6 +575,15 @@
       <c r="F4">
         <v>4</v>
       </c>
+      <c r="G4">
+        <v>3.5</v>
+      </c>
+      <c r="H4">
+        <v>2.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -595,6 +604,12 @@
       <c r="G5">
         <v>7.5</v>
       </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -615,6 +630,12 @@
       <c r="G6">
         <v>4</v>
       </c>
+      <c r="H6">
+        <v>3.5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -633,6 +654,12 @@
         <v>4</v>
       </c>
       <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
     </row>
@@ -655,6 +682,12 @@
       <c r="G8">
         <v>6</v>
       </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -675,6 +708,12 @@
       <c r="G9">
         <v>3.5</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -695,6 +734,12 @@
       <c r="G10">
         <v>4</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -715,6 +760,12 @@
       <c r="G11">
         <v>7</v>
       </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -735,6 +786,12 @@
       <c r="G12">
         <v>4</v>
       </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -755,6 +812,12 @@
       <c r="G13">
         <v>4</v>
       </c>
+      <c r="H13">
+        <v>2.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -775,6 +838,12 @@
       <c r="G14">
         <v>4</v>
       </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -794,6 +863,12 @@
       </c>
       <c r="G15">
         <v>1.5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">

--- a/Wiki Resources/Sprint Planning 1.xlsx
+++ b/Wiki Resources/Sprint Planning 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Sprint Planning</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Javi</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Marcos</t>
   </si>
   <si>
@@ -113,13 +110,19 @@
     <t>Horas estimadas</t>
   </si>
   <si>
-    <t>Planeado</t>
-  </si>
-  <si>
     <t>En progreso</t>
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Acabado</t>
+  </si>
+  <si>
+    <t>Criterios de aceptacion</t>
+  </si>
+  <si>
+    <t>Dada una matriz, que dé coordenadas hexagonales</t>
   </si>
 </sst>
 </file>
@@ -158,9 +161,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,40 +481,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.109375" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="16" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G2" s="3" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -520,138 +528,150 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1">
         <v>43013</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>43014</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>43017</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>43018</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>43019</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>43020</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>43021</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>43024</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>43025</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
       <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>3.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.5</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
+      <c r="C5" t="s">
+        <v>32</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
       <c r="G5">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
         <v>3.5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -662,126 +682,141 @@
       <c r="I7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
         <v>8</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
       <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
         <v>3.5</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>8</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
       </c>
       <c r="H11">
         <v>7</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
+      <c r="F12" t="s">
+        <v>28</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -792,49 +827,55 @@
       <c r="I12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
         <v>2.5</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
       <c r="G14">
         <v>4</v>
       </c>
@@ -842,47 +883,72 @@
         <v>4</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>30</v>
       </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
       <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
         <v>1.5</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <f>SUM(F4:F15)</f>
-        <v>60</v>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G4:G15)</f>
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:K17" si="0">SUM(H4:H15)</f>
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="H2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Wiki Resources/Sprint Planning 1.xlsx
+++ b/Wiki Resources/Sprint Planning 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>Sprint Planning</t>
   </si>
@@ -123,6 +123,69 @@
   </si>
   <si>
     <t>Dada una matriz, que dé coordenadas hexagonales</t>
+  </si>
+  <si>
+    <t>Que se instancie un mapa, con los tiles bien colocados</t>
+  </si>
+  <si>
+    <t>Dado un archivo txt, que lo transforme en una matriz de tiles</t>
+  </si>
+  <si>
+    <t>Dados 2 puntos, que encuentre uno de los caminos más cortos</t>
+  </si>
+  <si>
+    <t>Que clickando un objeto, se pase éste al controlador</t>
+  </si>
+  <si>
+    <t>Dada una lista de puntos, que el slime se mueva por estos puntos</t>
+  </si>
+  <si>
+    <t>Que se pueda navegar entre escenas</t>
+  </si>
+  <si>
+    <t>Que esté diseñado</t>
+  </si>
+  <si>
+    <t>Sprite animation</t>
+  </si>
+  <si>
+    <t>Animation controller</t>
+  </si>
+  <si>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>Turn controller</t>
+  </si>
+  <si>
+    <t>Slime y tile Info</t>
+  </si>
+  <si>
+    <t>Dada una lista de imágenes, que las muestre una tras otra</t>
+  </si>
+  <si>
+    <t>Que muestre una animación u otra en función de un estado</t>
+  </si>
+  <si>
+    <t>Que se cree un dialog y se cierre al pulsar un botón</t>
+  </si>
+  <si>
+    <t>Que se muestre información de los objetos al clickarlos</t>
+  </si>
+  <si>
+    <t>Dados 2 puntos, que se muestre un proyectil moviéndose de uno a otro</t>
+  </si>
+  <si>
+    <t>Que al apretar un botón se incrementen los turnos, y se acabe la partida al 5o turno</t>
+  </si>
+  <si>
+    <t>Que esté diseñada la animación de idle del slime</t>
+  </si>
+  <si>
+    <t>Animation design 1</t>
   </si>
 </sst>
 </file>
@@ -161,9 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,46 +545,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.109375" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1"/>
-    <col min="15" max="16" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="17" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -542,41 +608,47 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
+        <v>43012</v>
+      </c>
+      <c r="I3" s="1">
         <v>43013</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>43014</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>43017</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>43018</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>43019</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>43020</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>43021</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>43024</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>43025</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
@@ -587,19 +659,37 @@
         <v>4</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
         <v>3.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.5</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -619,25 +709,46 @@
         <v>4</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
         <v>3.5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
@@ -651,22 +762,34 @@
         <v>4</v>
       </c>
       <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
         <v>3.5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
@@ -688,43 +811,76 @@
       <c r="K7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>6</v>
       </c>
       <c r="J8">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>5.5</v>
+      </c>
+      <c r="M8">
+        <v>4.5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
@@ -735,25 +891,46 @@
         <v>4</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
         <v>3.5</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
@@ -767,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -775,14 +952,35 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
@@ -793,30 +991,51 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -833,14 +1052,35 @@
       <c r="K12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -854,22 +1094,43 @@
         <v>4</v>
       </c>
       <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
         <v>2.5</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
@@ -886,19 +1147,40 @@
         <v>4</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
@@ -909,46 +1191,416 @@
         <v>4</v>
       </c>
       <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
         <v>1.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <v>5.5</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
         <v>29</v>
       </c>
-      <c r="G17">
-        <f>SUM(G4:G15)</f>
-        <v>56</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:K17" si="0">SUM(H4:H15)</f>
-        <v>49</v>
-      </c>
-      <c r="I17">
+      <c r="G26">
+        <f>SUM(G4:G24)</f>
+        <v>92</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:Q26" si="0">SUM(H4:H24)</f>
+        <v>92</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="0"/>
-        <v>36.5</v>
-      </c>
-      <c r="J17">
+        <v>85</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="K17">
+        <v>72.5</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>52.5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>51.5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Wiki Resources/Sprint Planning 1.xlsx
+++ b/Wiki Resources/Sprint Planning 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Sprint Planning</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Animation design 1</t>
+  </si>
+  <si>
+    <t>Action menu</t>
+  </si>
+  <si>
+    <t>Actions/Turns/Slimes</t>
   </si>
 </sst>
 </file>
@@ -195,8 +201,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -224,10 +238,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,48 +560,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="17" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.109375" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="17" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H2" s="3" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -639,7 +654,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -689,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -739,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -753,7 +768,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -779,8 +794,17 @@
       <c r="N6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -794,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -820,8 +844,17 @@
       <c r="N7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="3">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -871,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -921,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -971,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1021,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1071,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1121,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1171,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1221,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1261,8 +1294,14 @@
       <c r="N17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1302,8 +1341,14 @@
       <c r="N18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1343,8 +1388,14 @@
       <c r="N19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1384,8 +1435,14 @@
       <c r="N20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1425,8 +1482,14 @@
       <c r="N21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1440,7 +1503,7 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1466,8 +1529,14 @@
       <c r="N22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1507,8 +1576,14 @@
       <c r="N23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1548,52 +1623,146 @@
       <c r="N24">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
       <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
         <v>29</v>
       </c>
-      <c r="G26">
-        <f>SUM(G4:G24)</f>
+      <c r="G29">
+        <f>SUM(G4:G26)</f>
+        <v>95</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:Q29" si="0">SUM(H4:H24)</f>
         <v>92</v>
       </c>
-      <c r="H26">
-        <f t="shared" ref="H26:Q26" si="0">SUM(H4:H24)</f>
-        <v>92</v>
-      </c>
-      <c r="I26">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J26">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="K26">
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-      <c r="L26">
+      <c r="L29">
         <f t="shared" si="0"/>
         <v>51.5</v>
       </c>
-      <c r="M26">
+      <c r="M29">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="N26">
+      <c r="N29">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="O26">
+      <c r="O29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
+        <v>35</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q26">
+        <v>18</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
